--- a/biology/Médecine/1943_en_santé_et_médecine/1943_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1943_en_santé_et_médecine/1943_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1943_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1943_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1943 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1943_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1943_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>7 avril : le chercheur suisse Albert Hofmann élabore le LSD (Acide lysergique diéthylamide).
 16 avril : Albert Hofmann expérimente accidentellement les effets psychotropes du LSD.
 Août : coloration de Papanicolau : dépistage du cancer du col utérin (voir Frottis de dépistage).
-8 octobre : dans   « psychopathie autistique » de l'enfance, le psychiatre autrichien Hans Asperger décrit le syndrome d'Asperger [1].
-Le psychiatre Leo Kanner définie à Baltimore (aux États-Unis) le « trouble autistique du contact affectif »[2].
+8 octobre : dans   « psychopathie autistique » de l'enfance, le psychiatre autrichien Hans Asperger décrit le syndrome d'Asperger .
+Le psychiatre Leo Kanner définie à Baltimore (aux États-Unis) le « trouble autistique du contact affectif ».
 Albert Schatz et Selman Waksman découvrent la streptomycine.
 Willem Johan Kolff réussit la première hémodialyse aux Pays-Bas.</t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1943_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1943_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>14 janvier : Ralph Steinman (mort en 2011 d'un cancer du pancréas), médecin et immunologiste canadien, prix Nobel de physiologie ou médecine en 2011, avec Bruce Beutler et Jules Hoffmann.</t>
         </is>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1943_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1943_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>9 juillet : Clifford Whittingham Beers (né en 1876), fondateur du mouvement d'hygiène mentale aux États-Unis.
 5 juillet : Charles Gandy (né en 1872), médecin français.</t>
